--- a/quality_scores_all.xlsx
+++ b/quality_scores_all.xlsx
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1472567058100526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1555152429900893</v>
+        <v>0.3110304859801785</v>
       </c>
     </row>
     <row r="4">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07617317428841087</v>
+        <v>0.1523463485768217</v>
       </c>
     </row>
   </sheetData>
@@ -1674,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1472567058100526</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4794513411620105</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29">
@@ -1806,10 +1806,10 @@
         <v>0.04431739183093378</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1555152429900893</v>
+        <v>0.3110304859801785</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4966141357388447</v>
+        <v>0.5277171843368625</v>
       </c>
     </row>
     <row r="35">
@@ -1850,10 +1850,10 @@
         <v>0.07016818199634473</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07617317428841087</v>
+        <v>0.1523463485768217</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4897934985564029</v>
+        <v>0.505028133414085</v>
       </c>
     </row>
     <row r="37">

--- a/quality_scores_all.xlsx
+++ b/quality_scores_all.xlsx
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.1472567058100526</v>
       </c>
     </row>
     <row r="3">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3110304859801785</v>
+        <v>0.1555152429900893</v>
       </c>
     </row>
     <row r="4">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1523463485768217</v>
+        <v>0.07617317428841087</v>
       </c>
     </row>
   </sheetData>
@@ -1674,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.1472567058100526</v>
       </c>
       <c r="F28" t="n">
-        <v>0.45</v>
+        <v>0.4794513411620105</v>
       </c>
     </row>
     <row r="29">
@@ -1806,10 +1806,10 @@
         <v>0.04431739183093378</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3110304859801785</v>
+        <v>0.1555152429900893</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5277171843368625</v>
+        <v>0.4966141357388447</v>
       </c>
     </row>
     <row r="35">
@@ -1850,10 +1850,10 @@
         <v>0.07016818199634473</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1523463485768217</v>
+        <v>0.07617317428841087</v>
       </c>
       <c r="F36" t="n">
-        <v>0.505028133414085</v>
+        <v>0.4897934985564029</v>
       </c>
     </row>
     <row r="37">
